--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppjai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppjai\Documents\UiPath\Demo_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923874CC-2DF3-4FCB-84E6-C200C6E99D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8713E67-B053-4DC3-A27B-DA3577A5E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Random Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="RandomSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Country Code</t>
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>Random Data</t>
+  </si>
+  <si>
+    <t>Jai</t>
   </si>
 </sst>
 </file>
@@ -352,10 +358,13 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -374,14 +383,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0269BBE-667A-494E-9690-106B5CE8D617}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>